--- a/Mifos Automation Excels/Client/4258-MS-EI-DB-DL-REC-CTRFD-RNI-INT-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4258-MS-EI-DB-DL-REC-CTRFD-RNI-INT-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -202,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -332,6 +337,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -379,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +420,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,6 +472,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -789,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -809,12 +851,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -854,17 +897,18 @@
       <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="8">
@@ -889,9 +933,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -929,14 +974,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -972,14 +1018,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1015,14 +1062,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1058,14 +1106,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1101,14 +1150,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1144,14 +1194,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1187,14 +1238,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1230,14 +1282,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1273,14 +1326,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1316,14 +1370,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1359,14 +1414,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1402,10 +1458,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>556.09</v>
       </c>
     </row>
@@ -1886,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4258-MS-EI-DB-DL-REC-CTRFD-RNI-INT-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4258-MS-EI-DB-DL-REC-CTRFD-RNI-INT-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>makerepayment</t>
   </si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -207,17 +199,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -283,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -305,17 +291,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -326,6 +306,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,26 +403,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,23 +438,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,17 +636,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11">
         <v>42036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="16">
+        <v>48</v>
+      </c>
+      <c r="B3" s="14">
         <v>1200</v>
       </c>
     </row>
@@ -709,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -821,9 +770,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -834,7 +780,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -850,61 +796,56 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -934,6 +875,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -949,7 +891,7 @@
       <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="6">
         <v>1098.08</v>
       </c>
@@ -965,19 +907,20 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
-        <v>1200</v>
+      <c r="K3" s="3">
+        <v>887.72</v>
       </c>
       <c r="L3" s="7">
         <v>1200</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="3">
+        <v>312.27999999999997</v>
+      </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
@@ -1015,13 +958,14 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3">
         <v>887.72</v>
       </c>
@@ -1059,13 +1003,14 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>887.72</v>
       </c>
@@ -1103,13 +1048,14 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>887.72</v>
       </c>
@@ -1147,13 +1093,14 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>887.72</v>
       </c>
@@ -1191,13 +1138,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>887.72</v>
       </c>
@@ -1235,13 +1183,14 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3">
         <v>887.72</v>
       </c>
@@ -1279,13 +1228,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3">
         <v>887.72</v>
       </c>
@@ -1323,13 +1273,14 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3">
         <v>887.72</v>
       </c>
@@ -1367,13 +1318,14 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3">
         <v>887.72</v>
       </c>
@@ -1411,13 +1363,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3">
         <v>887.72</v>
       </c>
@@ -1455,13 +1408,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3">
         <v>556.09</v>
       </c>
@@ -1494,36 +1448,36 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1531,13 +1485,13 @@
         <v>436</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42095</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>91.56</v>
@@ -1557,21 +1511,21 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>435</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>42064</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>81.95</v>
@@ -1591,15 +1545,15 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>434</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <v>42036</v>
@@ -1625,21 +1579,21 @@
       <c r="J4" s="6">
         <v>8901.92</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>428</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>101.92</v>
@@ -1659,15 +1613,15 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>427</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>42005</v>
@@ -1722,32 +1676,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1755,25 +1709,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="15">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1781,25 +1735,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1828,32 +1782,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1861,51 +1815,51 @@
         <v>759</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>760</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>760</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="18">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>57</v>
+      <c r="I3" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1913,25 +1867,25 @@
         <v>761</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1961,32 +1915,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1994,25 +1948,25 @@
         <v>735</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,25 +1974,25 @@
         <v>736</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2046,25 +2000,25 @@
         <v>762</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>42064</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2072,25 +2026,25 @@
         <v>763</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>42064</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2098,25 +2052,25 @@
         <v>764</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>42095</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2124,25 +2078,25 @@
         <v>765</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8">
         <v>42095</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
